--- a/db/queries/predicted/SBODemoUS-Human Resources-N3-N3-CodeS-queries-predicted.xlsx
+++ b/db/queries/predicted/SBODemoUS-Human Resources-N3-N3-CodeS-queries-predicted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
@@ -504,14 +499,9 @@
           <t>tab_naturalness_modifier</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>query_stats</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -575,14 +565,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'lastname'}, {'select element': '1'}, {'column': 'firstname'}, {'table source item': '1'}, {'table': 'ohem'}, {'join': '1'}, {'table source item': '1'}, {'table': 'htm1'}, {'predicate': '1'}, {'column': 'empid'}, {'column': 'empid'}, {'join': '1'}, {'table source item': '1'}, {'table': 'ohtm'}, {'predicate': '1'}, {'column': 'teamid'}, {'column': 'teamid'}, {'where': '1'}, {'predicate': '1'}, {'column': 'name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -646,14 +631,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'strdate'}, {'select element': '1'}, {'column': 'enddate'}, {'select element': '1'}, {'column': 'rmrks'}, {'table source item': '1'}, {'table': 'hld1'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'strdate'}, {'predicate': '1'}, {'column': 'enddate'}]</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -718,14 +698,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'salary'}, {'table source item': '1'}, {'table': 'ohem'}, {'join': '1'}, {'table source item': '1'}, {'table': 'htm1'}, {'predicate': '1'}, {'column': 'empid'}, {'column': 'empid'}, {'join': '1'}, {'table source item': '1'}, {'table': 'ohtm'}, {'predicate': '1'}, {'column': 'teamid'}, {'column': 'teamid'}, {'where': '1'}, {'predicate': '1'}, {'column': 'name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -790,14 +765,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'officetel'}, {'select element': '1'}, {'column': 'mobile'}, {'select element': '1'}, {'column': 'pager'}, {'select element': '1'}, {'column': 'hometel'}, {'table source item': '1'}, {'table': 'ohem'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'lastname'}, {'predicate': '1'}, {'column': 'firstname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -862,14 +832,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'fnamesp'}, {'select element': '1'}, {'column': 'surnamesp'}, {'table source item': '1'}, {'table': 'ohem'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'lastname'}, {'predicate': '1'}, {'column': 'firstname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -933,14 +898,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'lastname'}, {'select element': '1'}, {'column': 'statusofe'}, {'select element': '1'}, {'column': 'nchildren'}, {'table source item': '1'}, {'table': 'ohem'}, {'join': '1'}, {'table source item': '1'}, {'table': 'ohty'}, {'predicate': '1'}, {'column': 'typeid'}, {'column': 'type'}, {'where': '1'}, {'predicate': '1'}, {'column': 'name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -1003,14 +963,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'typeid'}, {'select element': '1'}, {'column': '[name]'}, {'table source item': '1'}, {'table': 'ohty'}]</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -1074,14 +1029,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'empid'}, {'select element': '1'}, {'column': 'lastname'}, {'select element': '1'}, {'column': 'heainsname'}, {'select element': '1'}, {'column': 'heainscode'}, {'select element': '1'}, {'column': 'heainstype'}, {'table source item': '1'}, {'table': 'ohem'}]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -1145,14 +1095,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'jtcode'}, {'table source item': '1'}, {'table': 'ohem'}, {'where': '1'}, {'predicate': '1'}, {'column': 'lastname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -1217,14 +1162,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'vaccuryear'}, {'table source item': '1'}, {'table': 'ohem'}, {'join': '1'}, {'table source item': '1'}, {'table': 'htm1'}, {'predicate': '1'}, {'column': 'empid'}, {'column': 'empid'}, {'join': '1'}, {'table source item': '1'}, {'table': 'ohtm'}, {'predicate': '1'}, {'column': 'teamid'}, {'column': 'teamid'}, {'where': '1'}, {'predicate': '1'}, {'column': 'name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
@@ -1288,14 +1228,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'teamid'}, {'table source item': '1'}, {'table': 'htm1'}, {'join': '1'}, {'table source item': '1'}, {'table': 'ohem'}, {'predicate': '1'}, {'column': 'empid'}, {'column': 'empid'}, {'where': '1'}, {'predicate': '1'}, {'column': 'cpf'}]</t>
-        </is>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
@@ -1360,14 +1295,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'munkey'}, {'select element': '1'}, {'column': 'taxclass'}, {'select element': '1'}, {'column': 'intaxliabi'}, {'table source item': '1'}, {'table': 'ohem'}, {'join': '1'}, {'table source item': '1'}, {'table': 'ohty'}, {'predicate': '1'}, {'column': 'type'}, {'column': 'typeid'}, {'where': '1'}, {'predicate': '1'}, {'column': 'name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
@@ -1431,14 +1361,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'roleid'}, {'table source item': '1'}, {'table': 'hem6'}, {'join': '1'}, {'table source item': '1'}, {'table': 'ohem'}, {'predicate': '1'}, {'column': 'empid'}, {'column': 'empid'}, {'where': '1'}, {'predicate': '1'}, {'column': 'salary'}]</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
@@ -1502,14 +1427,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'birthdate'}, {'select element': '1'}, {'column': 'brthcountr'}, {'select element': '1'}, {'column': 'homecity'}, {'select element': '1'}, {'column': 'homecounty'}, {'select element': '1'}, {'column': 'homecountr'}, {'table source item': '1'}, {'table': 'ohem'}, {'where': '1'}, {'predicate': '1'}, {'column': 'jobtitle'}]</t>
-        </is>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
@@ -1573,14 +1493,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'statusofp'}, {'select element': '1'}, {'column': 'citizenshp'}, {'select element': '1'}, {'column': 'passportno'}, {'table source item': '1'}, {'table': 'ohem'}, {'where': '1'}, {'predicate': '1'}, {'column': 'lastname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
@@ -1645,14 +1560,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'firstname'}, {'select element': '1'}, {'column': 'lastname'}, {'select element': '1'}, {'column': 'homecity'}, {'select element': '1'}, {'column': 'workcity'}, {'table source item': '1'}, {'table': 'ohem'}, {'where': '1'}, {'predicate': '1'}, {'column': 'emplcost'}]</t>
-        </is>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
@@ -1715,14 +1625,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'munkey'}, {'select element': '1'}, {'column': 'homecity'}, {'select element': '1'}, {'column': 'hometel'}, {'select element': '1'}, {'column': 'workcity'}, {'select element': '1'}, {'column': 'officetel'}, {'table source item': '1'}, {'table': 'ohem'}, {'join': '1'}, {'table source item': '1'}, {'table': 'htm1'}, {'predicate': '1'}, {'column': 'empid'}, {'column': 'empid'}, {'join': '1'}, {'table source item': '1'}, {'table': 'ohtm'}, {'predicate': '1'}, {'column': 'teamid'}, {'column': 'teamid'}, {'where': '1'}, {'predicate': '1'}, {'column': 'name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
@@ -1786,14 +1691,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'statusofp'}, {'select element': '1'}, {'column': 'statusofe'}, {'select element': '1'}, {'column': 'streetnow'}, {'select element': '1'}, {'column': 'streetnoh'}, {'table source item': '1'}, {'table': 'ohem'}, {'join': '1'}, {'table source item': '1'}, {'table': 'htm1'}, {'predicate': '1'}, {'column': 'empid'}, {'column': 'empid'}, {'join': '1'}, {'table source item': '1'}, {'table': 'ohtm'}, {'predicate': '1'}, {'column': 'teamid'}, {'column': 'teamid'}, {'where': '1'}, {'predicate': '1'}, {'column': 'name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
@@ -1858,14 +1758,9 @@
           <t>N3</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'pymmeth'}, {'select element': '1'}, {'column': 'exemptcurr'}, {'select element': '1'}, {'column': 'addicurr'}, {'table source item': '1'}, {'table': 'ohem'}, {'where': '1'}, {'predicate': '1'}, {'column': 'taxoname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
@@ -1927,11 +1822,6 @@
       <c r="N21" t="inlineStr">
         <is>
           <t>N3</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'martstatus'}, {'select element': '1'}, {'column': 'homestreet'}, {'select element': '1'}, {'column': 'homeblock'}, {'select element': '1'}, {'column': 'homezip'}, {'select element': '1'}, {'column': 'homestate'}, {'table source item': '1'}, {'table': 'ohem'}, {'where': '1'}, {'predicate': '1'}, {'column': 'lastname'}]</t>
         </is>
       </c>
     </row>
